--- a/schemas/genomicVariations.xlsx
+++ b/schemas/genomicVariations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64183414-8B90-644D-9B39-28CB38B2FC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB44DE5C-1633-5A4A-A08A-D753BF8D92DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15780" xr2:uid="{CA8D8E42-9DF3-C240-8133-044EE2522E69}"/>
+    <workbookView xWindow="10480" yWindow="1260" windowWidth="27640" windowHeight="15780" xr2:uid="{CA8D8E42-9DF3-C240-8133-044EE2522E69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>caseLevelData_alleleOrigin_id</t>
   </si>
@@ -250,20 +250,50 @@
     <t>variantLevelData_phenotypicEffects_evidenceType_label</t>
   </si>
   <si>
-    <t>adaas</t>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>GENO:GENO_0000458</t>
+  </si>
+  <si>
+    <t>HG02623</t>
+  </si>
+  <si>
+    <t>CHR_START-DUXAP8</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>ENSGLOSSARY:0000174</t>
+  </si>
+  <si>
+    <t>intergenic_region</t>
+  </si>
+  <si>
+    <t>chr22_16050115_G_A</t>
+  </si>
+  <si>
+    <t>HG02624</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF12B300"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -286,8 +316,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F416073F-7E43-124D-91CA-DEF393818D95}">
-  <dimension ref="A1:BS2"/>
+  <dimension ref="A1:BS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="BS2" sqref="BS2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -825,219 +856,56 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:71" ht="18" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B2" t="s">
+      <c r="AO2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" ht="18" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>71</v>
+      <c r="AO3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/schemas/genomicVariations.xlsx
+++ b/schemas/genomicVariations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB44DE5C-1633-5A4A-A08A-D753BF8D92DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E83747-6893-F549-89C2-09039D83595A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="1260" windowWidth="27640" windowHeight="15780" xr2:uid="{CA8D8E42-9DF3-C240-8133-044EE2522E69}"/>
+    <workbookView xWindow="-2000" yWindow="1720" windowWidth="28040" windowHeight="16280" xr2:uid="{1B322E1C-8083-5E49-BE5E-9412AC20B682}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>caseLevelData_alleleOrigin_id</t>
   </si>
@@ -139,142 +139,172 @@
     <t>frequencyInPopulations_version</t>
   </si>
   <si>
+    <t>identifiers_clinvarVariantId</t>
+  </si>
+  <si>
+    <t>identifiers_genomicHGVSId</t>
+  </si>
+  <si>
+    <t>identifiers_variantAlternativeIds_id</t>
+  </si>
+  <si>
+    <t>identifiers_variantAlternativeIds_notes</t>
+  </si>
+  <si>
+    <t>identifiers_variantAlternativeIds_reference</t>
+  </si>
+  <si>
+    <t>identifiers_variantAlternativeIds_type</t>
+  </si>
+  <si>
+    <t>molecularAttributes_genomicFeatures_featureClass_id</t>
+  </si>
+  <si>
+    <t>molecularAttributes_genomicFeatures_featureClass_label</t>
+  </si>
+  <si>
+    <t>molecularAttributes_genomicFeatures_featureID_id</t>
+  </si>
+  <si>
+    <t>molecularAttributes_genomicFeatures_featureID_label</t>
+  </si>
+  <si>
+    <t>molecularAttributes_molecularEffects_id</t>
+  </si>
+  <si>
+    <t>molecularAttributes_molecularEffects_label</t>
+  </si>
+  <si>
+    <t>variantInternalId</t>
+  </si>
+  <si>
+    <t>variantLevelData_clinicalInterpretations_annotatedWith_toolName</t>
+  </si>
+  <si>
+    <t>variantLevelData_clinicalInterpretations_annotatedWith_toolReferences</t>
+  </si>
+  <si>
+    <t>variantLevelData_clinicalInterpretations_annotatedWith_version</t>
+  </si>
+  <si>
+    <t>variantLevelData_clinicalInterpretations_category_id</t>
+  </si>
+  <si>
+    <t>variantLevelData_clinicalInterpretations_category_label</t>
+  </si>
+  <si>
+    <t>variantLevelData_clinicalInterpretations_clinicalRelevance</t>
+  </si>
+  <si>
+    <t>variantLevelData_clinicalInterpretations_conditionId</t>
+  </si>
+  <si>
+    <t>variantLevelData_clinicalInterpretations_effect_id</t>
+  </si>
+  <si>
+    <t>variantLevelData_clinicalInterpretations_effect_label</t>
+  </si>
+  <si>
+    <t>variantLevelData_clinicalInterpretations_evidenceType_id</t>
+  </si>
+  <si>
+    <t>variantLevelData_clinicalInterpretations_evidenceType_label</t>
+  </si>
+  <si>
+    <t>variantLevelData_phenotypicEffects_annotatedWith_toolName</t>
+  </si>
+  <si>
+    <t>variantLevelData_phenotypicEffects_annotatedWith_toolReferences</t>
+  </si>
+  <si>
+    <t>variantLevelData_phenotypicEffects_annotatedWith_version</t>
+  </si>
+  <si>
+    <t>variantLevelData_phenotypicEffects_category_id</t>
+  </si>
+  <si>
+    <t>variantLevelData_phenotypicEffects_category_label</t>
+  </si>
+  <si>
+    <t>variantLevelData_phenotypicEffects_clinicalRelevance</t>
+  </si>
+  <si>
+    <t>variantLevelData_phenotypicEffects_conditionId</t>
+  </si>
+  <si>
+    <t>variantLevelData_phenotypicEffects_effect_id</t>
+  </si>
+  <si>
+    <t>variantLevelData_phenotypicEffects_effect_label</t>
+  </si>
+  <si>
+    <t>variantLevelData_phenotypicEffects_evidenceType_id</t>
+  </si>
+  <si>
+    <t>variantLevelData_phenotypicEffects_evidenceType_label</t>
+  </si>
+  <si>
+    <t>variation_alternateBases</t>
+  </si>
+  <si>
+    <t>variation_location</t>
+  </si>
+  <si>
+    <t>variation_referenceBases</t>
+  </si>
+  <si>
+    <t>variation_variantType</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>GENO:GENO_0000458</t>
+  </si>
+  <si>
+    <t>HG03770</t>
+  </si>
+  <si>
     <t>identifiers_proteinHGVSIds</t>
   </si>
   <si>
     <t>identifiers_transcriptHGVSIds</t>
   </si>
   <si>
-    <t>identifiers_variantAlternativeIds_id</t>
-  </si>
-  <si>
-    <t>identifiers_variantAlternativeIds_notes</t>
-  </si>
-  <si>
-    <t>identifiers_variantAlternativeIds_reference</t>
-  </si>
-  <si>
-    <t>identifiers_variantAlternativeIds_type</t>
-  </si>
-  <si>
     <t>molecularAttributes_aminoacidChanges</t>
   </si>
   <si>
     <t>molecularAttributes_geneIds</t>
   </si>
   <si>
-    <t>molecularAttributes_genomicFeatures_featureClass_id</t>
-  </si>
-  <si>
-    <t>molecularAttributes_genomicFeatures_featureClass_label</t>
-  </si>
-  <si>
-    <t>molecularAttributes_genomicFeatures_featureID_id</t>
-  </si>
-  <si>
-    <t>molecularAttributes_genomicFeatures_featureID_label</t>
-  </si>
-  <si>
-    <t>molecularAttributes_molecularEffects_id</t>
-  </si>
-  <si>
-    <t>molecularAttributes_molecularEffects_label</t>
-  </si>
-  <si>
-    <t>variantInternalId</t>
-  </si>
-  <si>
-    <t>variantLevelData_clinicalInterpretations_annotatedWith_toolName</t>
-  </si>
-  <si>
-    <t>variantLevelData_clinicalInterpretations_annotatedWith_toolReferences</t>
-  </si>
-  <si>
-    <t>variantLevelData_clinicalInterpretations_annotatedWith_version</t>
-  </si>
-  <si>
-    <t>variantLevelData_clinicalInterpretations_category_id</t>
-  </si>
-  <si>
-    <t>variantLevelData_clinicalInterpretations_category_label</t>
-  </si>
-  <si>
-    <t>variantLevelData_clinicalInterpretations_clinicalRelevance</t>
-  </si>
-  <si>
-    <t>variantLevelData_clinicalInterpretations_conditionId</t>
-  </si>
-  <si>
-    <t>variantLevelData_clinicalInterpretations_effect_id</t>
-  </si>
-  <si>
-    <t>variantLevelData_clinicalInterpretations_effect_label</t>
-  </si>
-  <si>
-    <t>variantLevelData_clinicalInterpretations_evidenceType_id</t>
-  </si>
-  <si>
-    <t>variantLevelData_clinicalInterpretations_evidenceType_label</t>
-  </si>
-  <si>
-    <t>variantLevelData_phenotypicEffects_annotatedWith_toolName</t>
-  </si>
-  <si>
-    <t>variantLevelData_phenotypicEffects_annotatedWith_toolReferences</t>
-  </si>
-  <si>
-    <t>variantLevelData_phenotypicEffects_annotatedWith_version</t>
-  </si>
-  <si>
-    <t>variantLevelData_phenotypicEffects_category_id</t>
-  </si>
-  <si>
-    <t>variantLevelData_phenotypicEffects_category_label</t>
-  </si>
-  <si>
-    <t>variantLevelData_phenotypicEffects_clinicalRelevance</t>
-  </si>
-  <si>
-    <t>variantLevelData_phenotypicEffects_conditionId</t>
-  </si>
-  <si>
-    <t>variantLevelData_phenotypicEffects_effect_id</t>
-  </si>
-  <si>
-    <t>variantLevelData_phenotypicEffects_effect_label</t>
-  </si>
-  <si>
-    <t>variantLevelData_phenotypicEffects_evidenceType_id</t>
-  </si>
-  <si>
-    <t>variantLevelData_phenotypicEffects_evidenceType_label</t>
-  </si>
-  <si>
-    <t>0/1</t>
-  </si>
-  <si>
-    <t>GENO:GENO_0000458</t>
-  </si>
-  <si>
-    <t>HG02623</t>
-  </si>
-  <si>
     <t>CHR_START-DUXAP8</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
+    <t>intergenic_region</t>
+  </si>
+  <si>
     <t>ENSGLOSSARY:0000174</t>
   </si>
   <si>
-    <t>intergenic_region</t>
-  </si>
-  <si>
-    <t>chr22_16050115_G_A</t>
-  </si>
-  <si>
-    <t>HG02624</t>
+    <t>SNP</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>chr22_16050075_A_G</t>
+  </si>
+  <si>
+    <t>22:g.16050075A&gt;G</t>
+  </si>
+  <si>
+    <t>HG03770,HG03771</t>
   </si>
 </sst>
 </file>
@@ -632,16 +662,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F416073F-7E43-124D-91CA-DEF393818D95}">
-  <dimension ref="A1:BS3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0AE890-5246-2247-9C9D-3CEC7DD83E1E}">
+  <dimension ref="A1:BZ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -651,261 +681,303 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AU1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AV1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AW1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AX1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AY1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AZ1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BA1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BB1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BC1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BD1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BE1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BF1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BG1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BH1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BI1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BJ1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BK1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BL1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BM1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BN1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BO1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BP1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BQ1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BR1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BS1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BT1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BU1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BV1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BW1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BX1" t="s">
         <v>70</v>
       </c>
+      <c r="BY1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:71" ht="18" x14ac:dyDescent="0.25">
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:78" ht="18" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AD2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:78" ht="18" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AC3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AU2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:71" ht="18" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>78</v>
+      <c r="AK3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/schemas/genomicVariations.xlsx
+++ b/schemas/genomicVariations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E83747-6893-F549-89C2-09039D83595A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6080726A-00D9-1441-94B5-B71AECBCF049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2000" yWindow="1720" windowWidth="28040" windowHeight="16280" xr2:uid="{1B322E1C-8083-5E49-BE5E-9412AC20B682}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{1B322E1C-8083-5E49-BE5E-9412AC20B682}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>caseLevelData_alleleOrigin_id</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>HG03770,HG03771</t>
+  </si>
+  <si>
+    <t>0/1,1/2</t>
+  </si>
+  <si>
+    <t>GENO:GENO_0000458,GENO:GENO_0000457</t>
   </si>
 </sst>
 </file>
@@ -665,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0AE890-5246-2247-9C9D-3CEC7DD83E1E}">
   <dimension ref="A1:BZ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -909,10 +915,10 @@
         <v>89</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>88</v>
